--- a/data/trans_orig/P6512-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6512-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13E63A4D-7EA6-4A5A-B606-AD932AAB9077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F4D2FAD-7B3B-4496-99CE-54E57F7FA990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A29F4D11-3415-4517-9CBA-050EEDFA7711}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DE2646D-C9A8-4D8A-8919-EB3C1BD06119}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
   <si>
     <t>Población según el uso de ordenadores durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,1%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>76,28%</t>
   </si>
   <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
   </si>
   <si>
     <t>45,38%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
   </si>
   <si>
     <t>62,47%</t>
   </si>
   <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,10 +104,10 @@
     <t>8,01%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>14,11%</t>
@@ -116,16 +116,16 @@
     <t>8,87%</t>
   </si>
   <si>
-    <t>21,26%</t>
+    <t>21,98%</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,25 @@
     <t>6,31%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>14,57%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +161,28 @@
     <t>9,4%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
   </si>
   <si>
     <t>15,67%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,154 +194,145 @@
     <t>53,17%</t>
   </si>
   <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
   </si>
   <si>
     <t>42,57%</t>
   </si>
   <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
   </si>
   <si>
     <t>49,13%</t>
   </si>
   <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
   </si>
   <si>
     <t>14,86%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>12,66%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>17,48%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>11,64%</t>
+    <t>12,05%</t>
   </si>
   <si>
     <t>20,12%</t>
@@ -353,439 +341,439 @@
     <t>14,61%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
   </si>
   <si>
     <t>14,08%</t>
   </si>
   <si>
-    <t>11,2%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>18,91%</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1200,7 +1188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D192109-90CB-4B4B-A649-4E751D3C77E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A64F58-7851-409C-871D-FAD7AE2D6824}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1459,16 +1447,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>17</v>
@@ -1477,13 +1465,13 @@
         <v>16606</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -1492,13 +1480,13 @@
         <v>33395</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -1507,13 +1495,13 @@
         <v>50001</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1528,13 +1516,13 @@
         <v>176571</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
@@ -1543,13 +1531,13 @@
         <v>142575</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>315</v>
@@ -1558,18 +1546,18 @@
         <v>319146</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1581,13 +1569,13 @@
         <v>294846</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>135</v>
@@ -1596,13 +1584,13 @@
         <v>145354</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>412</v>
@@ -1611,13 +1599,13 @@
         <v>440200</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,13 +1620,13 @@
         <v>82407</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -1647,13 +1635,13 @@
         <v>51393</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>129</v>
@@ -1662,13 +1650,13 @@
         <v>133801</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,13 +1671,13 @@
         <v>71471</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -1698,13 +1686,13 @@
         <v>47548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>114</v>
@@ -1713,19 +1701,19 @@
         <v>119019</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>100</v>
@@ -1734,13 +1722,13 @@
         <v>105846</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>94</v>
@@ -1749,13 +1737,13 @@
         <v>97181</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>194</v>
@@ -1764,13 +1752,13 @@
         <v>203028</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1773,13 @@
         <v>554571</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -1800,13 +1788,13 @@
         <v>341477</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>849</v>
@@ -1815,18 +1803,18 @@
         <v>896048</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1838,13 +1826,13 @@
         <v>305302</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>131</v>
@@ -1853,13 +1841,13 @@
         <v>140878</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>426</v>
@@ -1868,13 +1856,13 @@
         <v>446181</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,13 +1877,13 @@
         <v>79890</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>46</v>
@@ -1904,13 +1892,13 @@
         <v>47515</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>124</v>
@@ -1919,13 +1907,13 @@
         <v>127404</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1928,13 @@
         <v>79909</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -1955,13 +1943,13 @@
         <v>58323</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>132</v>
@@ -1970,19 +1958,19 @@
         <v>138232</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>99</v>
@@ -1991,13 +1979,13 @@
         <v>102512</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -2006,13 +1994,13 @@
         <v>57831</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>154</v>
@@ -2021,13 +2009,13 @@
         <v>160343</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,13 +2030,13 @@
         <v>567613</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>287</v>
@@ -2057,13 +2045,13 @@
         <v>304547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>836</v>
@@ -2072,18 +2060,18 @@
         <v>872160</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2095,13 +2083,13 @@
         <v>240180</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>87</v>
@@ -2110,13 +2098,13 @@
         <v>90962</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>313</v>
@@ -2125,13 +2113,13 @@
         <v>331143</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,13 +2134,13 @@
         <v>62034</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -2161,13 +2149,13 @@
         <v>28136</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>84</v>
@@ -2176,13 +2164,13 @@
         <v>90171</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,10 +2188,10 @@
         <v>24</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -2212,13 +2200,13 @@
         <v>19399</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>75</v>
@@ -2227,19 +2215,19 @@
         <v>80956</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>66</v>
@@ -2248,13 +2236,13 @@
         <v>72578</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -2263,13 +2251,13 @@
         <v>31235</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>96</v>
@@ -2278,13 +2266,13 @@
         <v>103814</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,13 +2287,13 @@
         <v>436350</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>162</v>
@@ -2314,13 +2302,13 @@
         <v>169733</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>568</v>
@@ -2329,18 +2317,18 @@
         <v>606084</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2352,13 +2340,13 @@
         <v>102825</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -2367,13 +2355,13 @@
         <v>36676</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>140</v>
@@ -2382,13 +2370,13 @@
         <v>139500</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,13 +2391,13 @@
         <v>19194</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -2418,13 +2406,13 @@
         <v>12494</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -2433,13 +2421,13 @@
         <v>31688</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2442,13 @@
         <v>15606</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2469,13 +2457,13 @@
         <v>6181</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2484,19 +2472,19 @@
         <v>21787</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>26</v>
@@ -2505,13 +2493,13 @@
         <v>26589</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H27" s="7">
         <v>9</v>
@@ -2520,13 +2508,13 @@
         <v>8933</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>35</v>
@@ -2535,13 +2523,13 @@
         <v>35523</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2544,13 @@
         <v>164215</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -2571,13 +2559,13 @@
         <v>64284</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>229</v>
@@ -2586,18 +2574,18 @@
         <v>228498</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2609,13 +2597,13 @@
         <v>3446</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2624,13 +2612,13 @@
         <v>2724</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2639,13 +2627,13 @@
         <v>6170</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2675,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2690,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2699,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2726,13 +2714,13 @@
         <v>897</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2741,19 +2729,19 @@
         <v>897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2762,13 +2750,13 @@
         <v>1592</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2777,13 +2765,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2792,13 +2780,13 @@
         <v>1593</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2801,13 @@
         <v>5038</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2828,13 +2816,13 @@
         <v>3621</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2843,13 +2831,13 @@
         <v>8659</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2854,13 @@
         <v>1081280</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H34" s="7">
         <v>454</v>
@@ -2881,13 +2869,13 @@
         <v>481298</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M34" s="7">
         <v>1490</v>
@@ -2896,13 +2884,13 @@
         <v>1562579</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2905,13 @@
         <v>257670</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H35" s="7">
         <v>152</v>
@@ -2932,13 +2920,13 @@
         <v>159662</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M35" s="7">
         <v>401</v>
@@ -2947,13 +2935,13 @@
         <v>417332</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2956,13 @@
         <v>239683</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="H36" s="7">
         <v>152</v>
@@ -2983,13 +2971,13 @@
         <v>156701</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M36" s="7">
         <v>382</v>
@@ -2998,19 +2986,19 @@
         <v>396384</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>309</v>
@@ -3019,13 +3007,13 @@
         <v>325725</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>224</v>
@@ -3034,13 +3022,13 @@
         <v>228576</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>533</v>
@@ -3049,13 +3037,13 @@
         <v>554301</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3058,13 @@
         <v>1904358</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>982</v>
@@ -3085,13 +3073,13 @@
         <v>1026237</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>2806</v>
@@ -3100,18 +3088,18 @@
         <v>2930596</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6512-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6512-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F4D2FAD-7B3B-4496-99CE-54E57F7FA990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59C04CD0-B549-4774-BD05-C02728E266BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DE2646D-C9A8-4D8A-8919-EB3C1BD06119}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31A26826-EFB4-49E8-88FF-303DD67B9C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="251">
   <si>
     <t>Población según el uso de ordenadores durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,1%)</t>
   </si>
@@ -74,433 +74,451 @@
     <t>76,28%</t>
   </si>
   <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>45,38%</t>
   </si>
   <si>
-    <t>37,14%</t>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>35/44</t>
   </si>
   <si>
     <t>53,79%</t>
   </si>
   <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
   </si>
   <si>
     <t>18,4%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -509,106 +527,109 @@
     <t>62,62%</t>
   </si>
   <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
   </si>
   <si>
     <t>57,05%</t>
   </si>
   <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
   </si>
   <si>
     <t>61,05%</t>
   </si>
   <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
+    <t>24,89%</t>
   </si>
   <si>
     <t>15,55%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -617,7 +638,7 @@
     <t>68,39%</t>
   </si>
   <si>
-    <t>11,39%</t>
+    <t>25,52%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -626,13 +647,13 @@
     <t>75,24%</t>
   </si>
   <si>
-    <t>22,83%</t>
+    <t>22,13%</t>
   </si>
   <si>
     <t>71,25%</t>
   </si>
   <si>
-    <t>32,98%</t>
+    <t>31,9%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -641,9 +662,6 @@
     <t>0%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
     <t>36,25%</t>
   </si>
   <si>
@@ -653,127 +671,121 @@
     <t>24,76%</t>
   </si>
   <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>88,61%</t>
+    <t>74,48%</t>
   </si>
   <si>
     <t>18,39%</t>
   </si>
   <si>
-    <t>59,62%</t>
+    <t>59,43%</t>
   </si>
   <si>
     <t>56,78%</t>
   </si>
   <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
   </si>
   <si>
     <t>46,9%</t>
   </si>
   <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>53,32%</t>
   </si>
   <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>11,14%</t>
+    <t>10,99%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
+    <t>15,36%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
   </si>
   <si>
     <t>18,91%</t>
   </si>
   <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1188,7 +1200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A64F58-7851-409C-871D-FAD7AE2D6824}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9599C4C-101D-4409-B393-44C09857EA7E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1447,16 +1459,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>17</v>
@@ -1465,13 +1477,13 @@
         <v>16606</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -1480,13 +1492,13 @@
         <v>33395</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -1495,13 +1507,13 @@
         <v>50001</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,13 +1528,13 @@
         <v>176571</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
@@ -1531,13 +1543,13 @@
         <v>142575</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>315</v>
@@ -1546,18 +1558,18 @@
         <v>319146</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1569,13 +1581,13 @@
         <v>294846</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>135</v>
@@ -1584,13 +1596,13 @@
         <v>145354</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>412</v>
@@ -1599,13 +1611,13 @@
         <v>440200</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1632,13 @@
         <v>82407</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -1635,13 +1647,13 @@
         <v>51393</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>129</v>
@@ -1650,13 +1662,13 @@
         <v>133801</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1683,13 @@
         <v>71471</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -1686,13 +1698,13 @@
         <v>47548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>114</v>
@@ -1701,19 +1713,19 @@
         <v>119019</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>100</v>
@@ -1722,13 +1734,13 @@
         <v>105846</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>94</v>
@@ -1737,13 +1749,13 @@
         <v>97181</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>194</v>
@@ -1752,13 +1764,13 @@
         <v>203028</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1785,13 @@
         <v>554571</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -1788,13 +1800,13 @@
         <v>341477</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>849</v>
@@ -1803,18 +1815,18 @@
         <v>896048</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1826,13 +1838,13 @@
         <v>305302</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>131</v>
@@ -1841,13 +1853,13 @@
         <v>140878</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>426</v>
@@ -1856,13 +1868,13 @@
         <v>446181</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1889,13 @@
         <v>79890</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>46</v>
@@ -1892,13 +1904,13 @@
         <v>47515</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>124</v>
@@ -1907,13 +1919,13 @@
         <v>127404</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1940,13 @@
         <v>79909</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -1943,13 +1955,13 @@
         <v>58323</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>132</v>
@@ -1958,19 +1970,19 @@
         <v>138232</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>99</v>
@@ -1979,13 +1991,13 @@
         <v>102512</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -1994,13 +2006,13 @@
         <v>57831</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>154</v>
@@ -2009,13 +2021,13 @@
         <v>160343</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,13 +2042,13 @@
         <v>567613</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>287</v>
@@ -2045,13 +2057,13 @@
         <v>304547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>836</v>
@@ -2060,18 +2072,18 @@
         <v>872160</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2083,13 +2095,13 @@
         <v>240180</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>87</v>
@@ -2098,13 +2110,13 @@
         <v>90962</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>313</v>
@@ -2113,13 +2125,13 @@
         <v>331143</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2146,13 @@
         <v>62034</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -2149,13 +2161,13 @@
         <v>28136</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>84</v>
@@ -2164,13 +2176,13 @@
         <v>90171</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,10 +2200,10 @@
         <v>24</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -2200,13 +2212,13 @@
         <v>19399</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>75</v>
@@ -2215,19 +2227,19 @@
         <v>80956</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>66</v>
@@ -2236,13 +2248,13 @@
         <v>72578</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -2251,13 +2263,13 @@
         <v>31235</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>96</v>
@@ -2266,13 +2278,13 @@
         <v>103814</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2299,13 @@
         <v>436350</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>162</v>
@@ -2302,13 +2314,13 @@
         <v>169733</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>568</v>
@@ -2317,18 +2329,18 @@
         <v>606084</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2340,13 +2352,13 @@
         <v>102825</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -2355,13 +2367,13 @@
         <v>36676</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>140</v>
@@ -2370,13 +2382,13 @@
         <v>139500</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2403,13 @@
         <v>19194</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -2406,13 +2418,13 @@
         <v>12494</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -2421,13 +2433,13 @@
         <v>31688</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2454,13 @@
         <v>15606</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2457,13 +2469,13 @@
         <v>6181</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2472,19 +2484,19 @@
         <v>21787</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>26</v>
@@ -2493,13 +2505,13 @@
         <v>26589</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>9</v>
@@ -2508,13 +2520,13 @@
         <v>8933</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>35</v>
@@ -2523,13 +2535,13 @@
         <v>35523</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2556,13 @@
         <v>164215</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -2559,13 +2571,13 @@
         <v>64284</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>229</v>
@@ -2574,18 +2586,18 @@
         <v>228498</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2597,13 +2609,13 @@
         <v>3446</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2612,13 +2624,13 @@
         <v>2724</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2627,13 +2639,13 @@
         <v>6170</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2663,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2678,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2711,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2714,13 +2726,13 @@
         <v>897</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2729,19 +2741,19 @@
         <v>897</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2750,13 +2762,13 @@
         <v>1592</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2765,13 +2777,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2780,13 +2792,13 @@
         <v>1593</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2813,13 @@
         <v>5038</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -2816,13 +2828,13 @@
         <v>3621</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2831,13 +2843,13 @@
         <v>8659</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,13 +2866,13 @@
         <v>1081280</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H34" s="7">
         <v>454</v>
@@ -2869,13 +2881,13 @@
         <v>481298</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M34" s="7">
         <v>1490</v>
@@ -2884,13 +2896,13 @@
         <v>1562579</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2917,13 @@
         <v>257670</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H35" s="7">
         <v>152</v>
@@ -2920,13 +2932,13 @@
         <v>159662</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M35" s="7">
         <v>401</v>
@@ -2935,13 +2947,13 @@
         <v>417332</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2968,13 @@
         <v>239683</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="H36" s="7">
         <v>152</v>
@@ -2971,13 +2983,13 @@
         <v>156701</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>382</v>
@@ -2986,19 +2998,19 @@
         <v>396384</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>309</v>
@@ -3007,13 +3019,13 @@
         <v>325725</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="H37" s="7">
         <v>224</v>
@@ -3022,13 +3034,13 @@
         <v>228576</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M37" s="7">
         <v>533</v>
@@ -3037,13 +3049,13 @@
         <v>554301</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,16 +3067,16 @@
         <v>1824</v>
       </c>
       <c r="D38" s="7">
-        <v>1904358</v>
+        <v>1904359</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>982</v>
@@ -3073,13 +3085,13 @@
         <v>1026237</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>2806</v>
@@ -3088,18 +3100,18 @@
         <v>2930596</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6512-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6512-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59C04CD0-B549-4774-BD05-C02728E266BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{880DAB78-5242-4C1F-BA8A-749D1AEB44C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31A26826-EFB4-49E8-88FF-303DD67B9C8F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1163BC8-7125-402B-B9E5-7D99F531454A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>76,28%</t>
   </si>
   <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>45,38%</t>
   </si>
   <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
   </si>
   <si>
     <t>62,47%</t>
   </si>
   <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>8,01%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>6,31%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,628 +164,628 @@
     <t>9,4%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>17,38%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
+    <t>45,57%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>74,48%</t>
+    <t>86,73%</t>
   </si>
   <si>
     <t>18,39%</t>
   </si>
   <si>
-    <t>59,43%</t>
+    <t>59,96%</t>
   </si>
   <si>
     <t>56,78%</t>
   </si>
   <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
   </si>
   <si>
     <t>46,9%</t>
   </si>
   <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
   </si>
   <si>
     <t>53,32%</t>
   </si>
   <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>15,57%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,99%</t>
+    <t>11,17%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
   </si>
   <si>
     <t>18,91%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9599C4C-101D-4409-B393-44C09857EA7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5ABDE2-AEEC-4288-B65D-724A97F3AAB6}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2666,7 +2666,7 @@
         <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,7 +2717,7 @@
         <v>207</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2726,13 +2726,13 @@
         <v>897</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>206</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2741,13 +2741,13 @@
         <v>897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>206</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2762,13 @@
         <v>1592</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>207</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2792,13 +2792,13 @@
         <v>1593</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>206</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2866,13 @@
         <v>1081280</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H34" s="7">
         <v>454</v>
@@ -2881,13 +2881,13 @@
         <v>481298</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M34" s="7">
         <v>1490</v>
@@ -2896,13 +2896,13 @@
         <v>1562579</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2917,13 @@
         <v>257670</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H35" s="7">
         <v>152</v>
@@ -2932,13 +2932,13 @@
         <v>159662</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M35" s="7">
         <v>401</v>
@@ -2947,13 +2947,13 @@
         <v>417332</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2968,13 @@
         <v>239683</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="H36" s="7">
         <v>152</v>
@@ -2983,13 +2983,13 @@
         <v>156701</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M36" s="7">
         <v>382</v>
@@ -2998,13 +2998,13 @@
         <v>396384</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3019,13 @@
         <v>325725</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H37" s="7">
         <v>224</v>
@@ -3067,7 +3067,7 @@
         <v>1824</v>
       </c>
       <c r="D38" s="7">
-        <v>1904359</v>
+        <v>1904358</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>

--- a/data/trans_orig/P6512-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6512-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{880DAB78-5242-4C1F-BA8A-749D1AEB44C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D698210-FEF2-4EDA-A031-72FD969C0A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1163BC8-7125-402B-B9E5-7D99F531454A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{552DA2DD-527E-430E-8341-4C6100E56572}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="253">
   <si>
     <t>Población según el uso de ordenadores durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,1%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>53,17%</t>
@@ -302,7 +302,7 @@
     <t>25,65%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>53,79%</t>
@@ -413,7 +413,7 @@
     <t>21,15%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>55,04%</t>
@@ -521,7 +521,7 @@
     <t>20,49%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>62,62%</t>
@@ -632,13 +632,13 @@
     <t>20,76%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -650,25 +650,22 @@
     <t>22,83%</t>
   </si>
   <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>30,57%</t>
+    <t>56,93%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>18,74%</t>
+    <t>26,42%</t>
   </si>
   <si>
     <t>24,76%</t>
@@ -677,22 +674,31 @@
     <t>77,17%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>56,78%</t>
@@ -1200,8 +1206,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5ABDE2-AEEC-4288-B65D-724A97F3AAB6}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A4D942-3AF6-4B67-974D-1131B505568D}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2603,10 +2609,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>3446</v>
+        <v>975</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>199</v>
@@ -2633,10 +2639,10 @@
         <v>201</v>
       </c>
       <c r="M29" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>6170</v>
+        <v>3699</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>204</v>
@@ -2660,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2675,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2690,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2717,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2726,28 +2732,28 @@
         <v>897</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,16 +2765,16 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2777,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2792,13 +2798,13 @@
         <v>1593</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,10 +2813,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2837,10 +2843,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2854,55 +2860,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1036</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>1081280</v>
+        <v>2471</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H34" s="7">
-        <v>454</v>
-      </c>
-      <c r="I34" s="7">
-        <v>481298</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="K34" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M34" s="7">
-        <v>1490</v>
+        <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>1562579</v>
+        <v>2471</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>227</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,49 +2915,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>257670</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="H35" s="7">
-        <v>152</v>
-      </c>
-      <c r="I35" s="7">
-        <v>159662</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="M35" s="7">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>417332</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,49 +2964,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>239683</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="H36" s="7">
-        <v>152</v>
-      </c>
-      <c r="I36" s="7">
-        <v>156701</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="M36" s="7">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>396384</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,49 +3013,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>325725</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="H37" s="7">
-        <v>224</v>
-      </c>
-      <c r="I37" s="7">
-        <v>228576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="M37" s="7">
-        <v>533</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>554301</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,63 +3062,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1036</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1081280</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H39" s="7">
+        <v>454</v>
+      </c>
+      <c r="I39" s="7">
+        <v>481298</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1490</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1562579</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>249</v>
+      </c>
+      <c r="D40" s="7">
+        <v>257670</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H40" s="7">
+        <v>152</v>
+      </c>
+      <c r="I40" s="7">
+        <v>159662</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M40" s="7">
+        <v>401</v>
+      </c>
+      <c r="N40" s="7">
+        <v>417332</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>230</v>
+      </c>
+      <c r="D41" s="7">
+        <v>239683</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H41" s="7">
+        <v>152</v>
+      </c>
+      <c r="I41" s="7">
+        <v>156701</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M41" s="7">
+        <v>382</v>
+      </c>
+      <c r="N41" s="7">
+        <v>396384</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>309</v>
+      </c>
+      <c r="D42" s="7">
+        <v>325725</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H42" s="7">
+        <v>224</v>
+      </c>
+      <c r="I42" s="7">
+        <v>228576</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M42" s="7">
+        <v>533</v>
+      </c>
+      <c r="N42" s="7">
+        <v>554301</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1824</v>
       </c>
-      <c r="D38" s="7">
-        <v>1904358</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>1904359</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>982</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1026237</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2806</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2930596</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>250</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
